--- a/data/trans_camb/P43_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 11,78</t>
+          <t>-1,2; 5,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 6,42</t>
+          <t>-2,35; 4,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 21,47</t>
+          <t>-0,69; 9,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 15,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 13,83</t>
+          <t>-1,81; 5,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 10,77</t>
+          <t>-2,52; 4,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 8,6</t>
+          <t>-0,47; 8,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 15,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 4,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 3,57</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 8,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>117,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,4%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>208,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,97%</t>
+          <t>110,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>74,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>142,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,75; 160,39</t>
+          <t>-44,86; 1063,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 88,58</t>
+          <t>-57,69; 566,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 305,15</t>
+          <t>-40,01; 1300,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 114,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 113,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 100,99</t>
+          <t>-34,1; 323,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,21; 90,4</t>
+          <t>-44,67; 270,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 71,87</t>
+          <t>-15,62; 447,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 142,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,66; 282,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-25,64; 238,02</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 449,14</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,53</t>
+          <t>-1,89; 5,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 5,73</t>
+          <t>-2,51; 5,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,33</t>
+          <t>1,18; 14,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 8,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 10,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 8,66</t>
+          <t>-0,39; 5,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,89</t>
+          <t>0,31; 6,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,85</t>
+          <t>2,47; 11,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 4,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 4,5</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 10,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>65,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>134,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>113,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 53,92</t>
+          <t>-24,57; 111,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 52,49</t>
+          <t>-30,6; 108,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 71,77</t>
+          <t>11,08; 276,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 66,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 81,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,74; 60,89</t>
+          <t>-6,52; 171,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 37,47</t>
+          <t>5,12; 206,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 45,27</t>
+          <t>34,97; 315,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 41,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 105,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 108,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>47,67; 221,41</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 2,58</t>
+          <t>-8,35; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 1,84</t>
+          <t>-7,32; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 3,86</t>
+          <t>-4,05; 10,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 4,34</t>
+          <t>-3,77; 5,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,5</t>
+          <t>-5,05; 3,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,49</t>
+          <t>-6,22; 2,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 1,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 2,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 1,94</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 3,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,76%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,68%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,85%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,24%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,89%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,21%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 23,29</t>
+          <t>-59,54; 36,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 22,04</t>
+          <t>-53,77; 46,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,25; 32,53</t>
+          <t>-35,32; 135,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 25,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 10,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 31,43</t>
+          <t>-27,74; 66,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 11,13</t>
+          <t>-37,7; 43,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 3,36</t>
+          <t>-47,73; 33,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 14,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-35,14; 35,02</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,66; 25,01</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-32,76; 45,66</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,24</t>
+          <t>-3,73; 3,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 5,66</t>
+          <t>-4,59; 2,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,81</t>
+          <t>-5,26; 1,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,85</t>
+          <t>-2,27; 5,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 4,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 1,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,78</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>-14,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-21,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,03%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 27,73</t>
+          <t>-41,31; 65,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 16,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 47,45</t>
+          <t>-50,3; 39,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 28,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 26,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 31,2</t>
+          <t>-54,82; 32,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 16,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 12,55</t>
+          <t>-25,49; 81,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 29,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-37,76; 23,95</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-26,33; 41,53</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 2,33</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 5,79</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 2,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 2,65</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 4,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 1,96</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 1,89</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 4,41</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,33%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36,05%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-22,82; 39,05</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-28,91; 34,87</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 87,45</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; 44,99</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 43,66</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 72,16</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-13,0; 31,55</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 29,31</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>9,01; 67,79</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
